--- a/ocms/target/test-classes/DownloadedFiles/CEP Event Mapping (1).xlsx
+++ b/ocms/target/test-classes/DownloadedFiles/CEP Event Mapping (1).xlsx
@@ -196,7 +196,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2">
-        <v>43613.47453703704</v>
+        <v>43616.56202546296</v>
       </c>
     </row>
   </sheetData>
